--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi_persistent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6531771890147307</v>
+        <v>0.5961359075206103</v>
       </c>
       <c r="D6" t="n">
-        <v>6.082267263262883</v>
+        <v>5.551109217756756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04920095719609423</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01983785289267526</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1632942972536827</v>
+        <v>0.04490428900803954</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0181054339256306</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.1490339768801526</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -699,9 +716,12 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.377296415446062</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02496763376880273</v>
+        <v>0.02400661722785494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1629124993714326</v>
+        <v>0.1266529192030473</v>
       </c>
       <c r="D7" t="n">
-        <v>3.044491684180065</v>
+        <v>2.569271079332649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1122946687967739</v>
+        <v>5.001378589136447e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02837080519452917</v>
+        <v>6.001654306963736e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2040224220965408</v>
+        <v>0.1008284739611115</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.02522405323604872</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1806972066809144</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,9 +760,12 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.239566773901456</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04769372668468142</v>
+        <v>0.04483106622320113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3689691433306917</v>
+        <v>0.3354674182674804</v>
       </c>
       <c r="D8" t="n">
-        <v>2.993550486477534</v>
+        <v>2.658040387426329</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08019622676193514</v>
+        <v>0.0001389355298137434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02943434866637475</v>
+        <v>0.0001720942086276402</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2962647079292138</v>
+        <v>0.06972242928765057</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.02603491216515013</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.2645640612477845</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -781,9 +804,12 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.11561009651131</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05623214973033377</v>
+        <v>0.05242719835936424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2243573068935221</v>
+        <v>0.1893241044215195</v>
       </c>
       <c r="D9" t="n">
-        <v>2.768826475118543</v>
+        <v>2.392072241488568</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09308409540101936</v>
+        <v>0.0002362530849981347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03635768337624844</v>
+        <v>0.0003031622045260508</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3523540346525943</v>
+        <v>0.08266995905620432</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.03224995498407145</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.3118950873531644</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -822,9 +848,12 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.004049086860179</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07584933330035376</v>
+        <v>0.07256481761851336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4634455571060471</v>
+        <v>0.4136729378956273</v>
       </c>
       <c r="D10" t="n">
-        <v>6.683738263077712</v>
+        <v>5.949302123681491</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09524400212398038</v>
+        <v>0.0003712578924839272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04414809590145785</v>
+        <v>0.0004845742485723341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2557201694793291</v>
+        <v>0.08337471586651733</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.03898622599281221</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.2213750559388791</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -863,9 +892,12 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.9036441781741615</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07107836213676436</v>
+        <v>0.07014458017960211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3816743959314983</v>
+        <v>0.3436006212874986</v>
       </c>
       <c r="D11" t="n">
-        <v>5.595608310588846</v>
+        <v>4.932261870645135</v>
       </c>
       <c r="E11" t="n">
-        <v>0.13252418982338</v>
+        <v>0.0004919574086396393</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0539709983058415</v>
+        <v>0.0006599356990213395</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2473169320186659</v>
+        <v>0.1182502327215027</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.04806575930239355</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.2196877965069199</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -904,9 +936,12 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.8132797603567454</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08570974910696659</v>
+        <v>0.08288343811505176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.385118038729095</v>
+        <v>0.3509990681014979</v>
       </c>
       <c r="D12" t="n">
-        <v>5.290870354585183</v>
+        <v>4.735878863103114</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1326133509176593</v>
+        <v>0.0006356054581156988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05928095620519609</v>
+        <v>0.0008671442943089688</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2834525979031055</v>
+        <v>0.1190780999645075</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.0530324751955142</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.2546767536388852</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -945,9 +980,12 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.7319517843210709</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09194692644524233</v>
+        <v>0.09066931643625005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3901700765587546</v>
+        <v>0.3567405277685132</v>
       </c>
       <c r="D13" t="n">
-        <v>5.815901636880323</v>
+        <v>5.188040098883703</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1356464175972497</v>
+        <v>0.0007904221867724636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06629631755077099</v>
+        <v>0.001093817585399594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3120179216803294</v>
+        <v>0.1227340099139361</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.05955474400705104</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.2835833297070799</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -986,9 +1024,12 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.6587566058889638</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1059626133561895</v>
+        <v>0.1032840761560342</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3222023202888076</v>
+        <v>0.3022927001233371</v>
       </c>
       <c r="D14" t="n">
-        <v>6.218963873964013</v>
+        <v>5.592050232195898</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1347738925604068</v>
+        <v>0.0009679683481500453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07063614807355474</v>
+        <v>0.001352027775789679</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2745472057530585</v>
+        <v>0.1228651870824504</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.06381522330922332</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.2550335134536944</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1027,9 +1068,12 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.5928809453000674</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109841764413408</v>
+        <v>0.1088747420527688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2941739385222237</v>
+        <v>0.2781752164971846</v>
       </c>
       <c r="D15" t="n">
-        <v>5.630686600560956</v>
+        <v>5.082582721772972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1302234110526641</v>
+        <v>0.001151572688761827</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07355209339021655</v>
+        <v>0.001624214630921602</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2153919037013402</v>
+        <v>0.1200191166861942</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.06683239636081426</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.2038016454011306</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1068,9 +1112,12 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.5335928507700607</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1086142023285939</v>
+        <v>0.1080613273803475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2725506216836329</v>
+        <v>0.2616259300949526</v>
       </c>
       <c r="D16" t="n">
-        <v>5.438923147125086</v>
+        <v>4.93940217974534</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1273760118144475</v>
+        <v>0.001326944273398516</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07681301241686067</v>
+        <v>0.00189436794937247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1871608883456954</v>
+        <v>0.1182424804608609</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.07013211210653494</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.1806304936564893</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1109,9 +1156,12 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.4802335656930546</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1095741516031807</v>
+        <v>0.1093454146709922</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2296784485671232</v>
+        <v>0.2243604682336744</v>
       </c>
       <c r="D17" t="n">
-        <v>5.4165735108456</v>
+        <v>4.929001205892156</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1219002772114</v>
+        <v>0.001500288571946246</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07887112565736203</v>
+        <v>0.002167731486049951</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1440049146681971</v>
+        <v>0.1141914408703812</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.07239125069830538</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1438795688233511</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1150,9 +1200,12 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.4322102091237492</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1075386824502228</v>
+        <v>0.1076190133186057</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2085689746819613</v>
+        <v>0.2065967762128742</v>
       </c>
       <c r="D18" t="n">
-        <v>5.160869013847636</v>
+        <v>4.725914237910476</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1157864356221797</v>
+        <v>0.001665257510816716</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08040137116072499</v>
+        <v>0.002436779019346465</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1164691033033285</v>
+        <v>0.1093247265971381</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.07415500258069473</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.119824410677221</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1191,9 +1244,12 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.3889891882113743</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.106675891163811</v>
+        <v>0.1063889833952829</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1852349790581767</v>
+        <v>0.185941378811428</v>
       </c>
       <c r="D19" t="n">
-        <v>4.777155669684827</v>
+        <v>4.397917733300923</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1119999851836259</v>
+        <v>0.00182393941545465</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08182954217779857</v>
+        <v>0.002702751477834672</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09378484494505943</v>
+        <v>0.1064833399689372</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.07581462063160224</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.09961202165203813</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1232,9 +1288,12 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.3500902693902369</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1052150327125952</v>
+        <v>0.1049051728921458</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1645678566289296</v>
+        <v>0.1673754318813526</v>
       </c>
       <c r="D20" t="n">
-        <v>4.538910020387538</v>
+        <v>4.197510720935949</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1075589222627881</v>
+        <v>0.001976402224122645</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08275769411354332</v>
+        <v>0.002965014410065037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06963655291960022</v>
+        <v>0.1028944868263123</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.07699879873776</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.07782603332397141</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1273,9 +1332,12 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.3150812424512132</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1031324862037743</v>
+        <v>0.102490717734961</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1493728031584934</v>
+        <v>0.1534698285289079</v>
       </c>
       <c r="D21" t="n">
-        <v>4.299534409807968</v>
+        <v>3.994776048899805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1035199316834068</v>
+        <v>0.002120997567537045</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08350428068761524</v>
+        <v>0.003221241204402439</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05503587617049023</v>
+        <v>0.09956069298327498</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.07799837289632262</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.0641544129882595</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1314,9 +1376,12 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.2835731182060919</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1015376617634235</v>
+        <v>0.1005254374549008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1342215099733202</v>
+        <v>0.139364395635151</v>
       </c>
       <c r="D22" t="n">
-        <v>3.990865558171208</v>
+        <v>3.73111207327473</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1001457345586606</v>
+        <v>0.00225934396302314</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0840429919029497</v>
+        <v>0.003472554798039691</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04256285158255022</v>
+        <v>0.09673599064735385</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.07878628654948877</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.05221303211707178</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1355,9 +1420,12 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.2552158063854827</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0996091878934709</v>
+        <v>0.09840719906263283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.123050234425066</v>
+        <v>0.1285890604824155</v>
       </c>
       <c r="D23" t="n">
-        <v>3.697623440625677</v>
+        <v>3.476310736539946</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09710007611736843</v>
+        <v>0.002391481871557917</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08439052467615984</v>
+        <v>0.003718572795696273</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03080311586282634</v>
+        <v>0.09413383790476124</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.0793743514104466</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.04071633916301959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1396,9 +1464,12 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.2296942257469344</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09773427756428435</v>
+        <v>0.09622165617601267</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1138537116233166</v>
+        <v>0.1196369940105331</v>
       </c>
       <c r="D24" t="n">
-        <v>3.449686389956787</v>
+        <v>3.26089858126817</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09460557917264925</v>
+        <v>0.002517599663650212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08464937209185981</v>
+        <v>0.003959126936136305</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02256564253226094</v>
+        <v>0.09196550263154403</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.07985951945467908</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03237058283793956</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1437,9 +1508,12 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.206724803172241</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09597276461254536</v>
+        <v>0.0942510732888929</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105138204092513</v>
+        <v>0.1110366167966827</v>
       </c>
       <c r="D25" t="n">
-        <v>3.196806893129362</v>
+        <v>3.040578163494875</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09236475807967903</v>
+        <v>0.002638509540752759</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08477312544248375</v>
+        <v>0.004194754619358538</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01554598334514716</v>
+        <v>0.08999225357991006</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.08020237305559609</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.02509607374792058</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1478,9 +1552,12 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.1860523228550169</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09419723737447618</v>
+        <v>0.09232187145697683</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09882184828044681</v>
+        <v>0.1046233458548654</v>
       </c>
       <c r="D26" t="n">
-        <v>2.941902765247539</v>
+        <v>2.817197859022838</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09038015925241899</v>
+        <v>0.002754541650619393</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08480987544931363</v>
+        <v>0.00442555929800098</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01007026504667501</v>
+        <v>0.08821946038810065</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08044632573927574</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.0192355136387703</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1519,9 +1596,12 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.1674470905695152</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09262942888213183</v>
+        <v>0.09060026944392639</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0934936616662045</v>
+        <v>0.0991323377165451</v>
       </c>
       <c r="D27" t="n">
-        <v>2.710519736312435</v>
+        <v>2.612922830342892</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08878185759278881</v>
+        <v>0.002866386850220393</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08479674488022336</v>
+        <v>0.004652059971610795</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726780298251785</v>
+        <v>0.08678184830346558</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.08062831694165964</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.01447348568989532</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1560,9 +1640,12 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.1507023815125637</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09115469462989245</v>
+        <v>0.08904441484712534</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08889173905785488</v>
+        <v>0.09436372443580777</v>
       </c>
       <c r="D28" t="n">
-        <v>2.497583185878675</v>
+        <v>2.424662952258017</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08738821689631794</v>
+        <v>0.002974590558177532</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08471867258614361</v>
+        <v>0.004874671008728609</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001980784101605543</v>
+        <v>0.08551986864295033</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.08073680401543951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.01032350356943119</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1601,9 +1684,12 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.1356321433613073</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08978067656238609</v>
+        <v>0.08761265181961005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08537556500841549</v>
+        <v>0.09064462333500671</v>
       </c>
       <c r="D29" t="n">
-        <v>2.291465493295799</v>
+        <v>2.24201580347433</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0861806547598066</v>
+        <v>0.003079564252450609</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08460132703575432</v>
+        <v>0.005093702638277634</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0007190545764486078</v>
+        <v>0.08442581530583665</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.08079735207852898</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.007198754255646173</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1642,9 +1728,12 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.1220689290251766</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08857502845195454</v>
+        <v>0.0863734389745522</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08249975950783896</v>
+        <v>0.08755978389933917</v>
       </c>
       <c r="D30" t="n">
-        <v>2.098016016257816</v>
+        <v>2.069812993460516</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08516923566784589</v>
+        <v>0.003181859992994335</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08445751183069808</v>
+        <v>0.005309636235714015</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.002814977942340535</v>
+        <v>0.08351252663613033</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.08082291455638782</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.004705656958574042</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1683,9 +1772,12 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.1098620361226589</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08748444969314359</v>
+        <v>0.08528510676341548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08021871435818152</v>
+        <v>0.0850890314784188</v>
       </c>
       <c r="D31" t="n">
-        <v>1.921379939581971</v>
+        <v>1.912023594090456</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08431154432549211</v>
+        <v>0.00328190366790611</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08428992543852722</v>
+        <v>0.005522849002622553</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.004535413109716085</v>
+        <v>0.08274332033868957</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.08081772772166228</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.002632442483677527</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1724,9 +1816,12 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>0.09887583251039306</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08651451106475096</v>
+        <v>0.0843324602656306</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07845360430646808</v>
+        <v>0.08315728053594253</v>
       </c>
       <c r="D32" t="n">
-        <v>1.757197037669486</v>
+        <v>1.765193530666926</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0835929196521549</v>
+        <v>0.00338006595345502</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0841087195890121</v>
+        <v>0.00573368015328663</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.005751306101091938</v>
+        <v>0.08210851525635811</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08079289619425378</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.001092811169226479</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1765,9 +1860,12 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.08898824925935375</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08566345704447433</v>
+        <v>0.08351899134065532</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07707605579346957</v>
+        <v>0.08163166393645241</v>
       </c>
       <c r="D33" t="n">
-        <v>1.603568816794355</v>
+        <v>1.6275121215202</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0829857757347859</v>
+        <v>0.0034767114495627</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08391842647598831</v>
+        <v>0.005942477631638268</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006618621268317068</v>
+        <v>0.08158387203444295</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.08075350550355254</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-6.637534329842487e-05</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1806,9 +1904,12 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.08008942433341838</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi_persistent.xlsx
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02400661722785494</v>
+        <v>0.02323531010561348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1266529192030473</v>
+        <v>0.1263754620640044</v>
       </c>
       <c r="D7" t="n">
-        <v>2.569271079332649</v>
+        <v>2.569334466433798</v>
       </c>
       <c r="E7" t="n">
-        <v>5.001378589136447e-05</v>
+        <v>4.840689605336142e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>6.001654306963736e-05</v>
+        <v>5.80882752640337e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1008284739611115</v>
+        <v>0.1008075743383883</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02522405323604872</v>
+        <v>0.02521562649671837</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1806972066809144</v>
+        <v>0.1806278423961537</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04483106622320113</v>
+        <v>0.04481441035769054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3354674182674804</v>
+        <v>0.3352988960264862</v>
       </c>
       <c r="D8" t="n">
-        <v>2.658040387426329</v>
+        <v>2.657919705382627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001389355298137434</v>
+        <v>0.0001375225045265038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001720942086276402</v>
+        <v>0.0001701243011582601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06972242928765057</v>
+        <v>0.06966724731875712</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02603491216515013</v>
+        <v>0.02601984430781024</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2645640612477845</v>
+        <v>0.2644525664027753</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05242719835936424</v>
+        <v>0.05232993790689643</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1893241044215195</v>
+        <v>0.1891998114712332</v>
       </c>
       <c r="D9" t="n">
-        <v>2.392072241488568</v>
+        <v>2.392033333513941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002362530849981347</v>
+        <v>0.0002348039306320268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003031622045260508</v>
+        <v>0.0003009491459255011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08266995905620432</v>
+        <v>0.0826231274320245</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03224995498407145</v>
+        <v>0.0322348754035555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3118950873531644</v>
+        <v>0.3117525192705836</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07256481761851336</v>
+        <v>0.0715745487725641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4136729378956273</v>
+        <v>0.4131811782692374</v>
       </c>
       <c r="D10" t="n">
-        <v>5.949302123681491</v>
+        <v>5.949466521384053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003712578924839272</v>
+        <v>0.0003677691578341662</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004845742485723341</v>
+        <v>0.0004798855178569114</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08337471586651733</v>
+        <v>0.08330610463572381</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03898622599281221</v>
+        <v>0.0389580208432453</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2213750559388791</v>
+        <v>0.2211095479497008</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07014458017960211</v>
+        <v>0.07167710697192092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3436006212874986</v>
+        <v>0.3438600221507579</v>
       </c>
       <c r="D11" t="n">
-        <v>4.932261870645135</v>
+        <v>4.931920679444938</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004919574086396393</v>
+        <v>0.0004922657327375717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006599356990213395</v>
+        <v>0.0006590782852867136</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1182502327215027</v>
+        <v>0.1181828443587527</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04806575930239355</v>
+        <v>0.04804525087802084</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2196877965069199</v>
+        <v>0.2195774026410404</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08288343811505176</v>
+        <v>0.08307783413829192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3509990681014979</v>
+        <v>0.3512422156059726</v>
       </c>
       <c r="D12" t="n">
-        <v>4.735878863103114</v>
+        <v>4.736003717561074</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0006356054581156988</v>
+        <v>0.0006363275618939104</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0008671442943089688</v>
+        <v>0.0008667728706324434</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1190780999645075</v>
+        <v>0.1191050704184869</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0530324751955142</v>
+        <v>0.05302957438648506</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2546767536388852</v>
+        <v>0.2547035595555432</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09066931643625005</v>
+        <v>0.09134975165642514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3567405277685132</v>
+        <v>0.3570123817666773</v>
       </c>
       <c r="D13" t="n">
-        <v>5.188040098883703</v>
+        <v>5.188223077017283</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007904221867724636</v>
+        <v>0.0007926434459487254</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001093817585399594</v>
+        <v>0.001095147249773506</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1227340099139361</v>
+        <v>0.1227821128971386</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05955474400705104</v>
+        <v>0.05955684032041383</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2835833297070799</v>
+        <v>0.2837008220161368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1032840761560342</v>
+        <v>0.103827277726545</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3022927001233371</v>
+        <v>0.3027781630173265</v>
       </c>
       <c r="D14" t="n">
-        <v>5.592050232195898</v>
+        <v>5.591874512662112</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0009679683481500453</v>
+        <v>0.0009712722833216195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001352027775789679</v>
+        <v>0.001354715444089869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1228651870824504</v>
+        <v>0.12294353407358</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06381522330922332</v>
+        <v>0.06383110898906644</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2550335134536944</v>
+        <v>0.2554170909994598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1088747420527688</v>
+        <v>0.1099605952625528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2781752164971846</v>
+        <v>0.2788802037322932</v>
       </c>
       <c r="D15" t="n">
-        <v>5.082582721772972</v>
+        <v>5.082555004995893</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001151572688761827</v>
+        <v>0.001157161359229573</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001624214630921602</v>
+        <v>0.001629616932246251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1200191166861942</v>
+        <v>0.1201470919029301</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06683239636081426</v>
+        <v>0.0668681192316372</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2038016454011306</v>
+        <v>0.2042953966718147</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1080613273803475</v>
+        <v>0.1093778659928695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2616259300949526</v>
+        <v>0.2625092324045407</v>
       </c>
       <c r="D16" t="n">
-        <v>4.93940217974534</v>
+        <v>4.939505662293733</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001326944273398516</v>
+        <v>0.001335232289264297</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00189436794937247</v>
+        <v>0.001903061597228424</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1182424804608609</v>
+        <v>0.118433511127522</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07013211210653494</v>
+        <v>0.07019002686531593</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1806304936564893</v>
+        <v>0.1811899248117225</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1093454146709922</v>
+        <v>0.1105514571660391</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2243604682336744</v>
+        <v>0.2253881246308651</v>
       </c>
       <c r="D17" t="n">
-        <v>4.929001205892156</v>
+        <v>4.929170825753122</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001500288571946246</v>
+        <v>0.001510885248918183</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002167731486049951</v>
+        <v>0.002179440240143522</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1141914408703812</v>
+        <v>0.1144432649478825</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07239125069830538</v>
+        <v>0.07247347621983347</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1438795688233511</v>
+        <v>0.1446068180491177</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1076190133186057</v>
+        <v>0.1090839993394285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2065967762128742</v>
+        <v>0.2077740328856621</v>
       </c>
       <c r="D18" t="n">
-        <v>4.725914237910476</v>
+        <v>4.725965858080182</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001665257510816716</v>
+        <v>0.001678677879780474</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002436779019346465</v>
+        <v>0.002452150238492093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1093247265971381</v>
+        <v>0.1096285760937183</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07415500258069473</v>
+        <v>0.07426354007444193</v>
       </c>
       <c r="I18" t="n">
-        <v>0.119824410677221</v>
+        <v>0.1206943643397603</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1063889833952829</v>
+        <v>0.1078109077491871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.185941378811428</v>
+        <v>0.1872353652524889</v>
       </c>
       <c r="D19" t="n">
-        <v>4.397917733300923</v>
+        <v>4.398088699574869</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00182393941545465</v>
+        <v>0.001839971529756028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002702751477834672</v>
+        <v>0.002721677507865061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1064833399689372</v>
+        <v>0.1068379051428123</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07581462063160224</v>
+        <v>0.07595076160275623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09961202165203813</v>
+        <v>0.1005795968904591</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1049051728921458</v>
+        <v>0.1062830444693927</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1673754318813526</v>
+        <v>0.1687099185665496</v>
       </c>
       <c r="D20" t="n">
-        <v>4.197510720935949</v>
+        <v>4.197797566706839</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001976402224122645</v>
+        <v>0.001994853922985852</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002965014410065037</v>
+        <v>0.002987385119038543</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1028944868263123</v>
+        <v>0.1032945313621199</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07699879873776</v>
+        <v>0.07716140102775514</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07782603332397141</v>
+        <v>0.0788433492063694</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.102490717734961</v>
+        <v>0.1039384657860459</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1534698285289079</v>
+        <v>0.1548615498126636</v>
       </c>
       <c r="D21" t="n">
-        <v>3.994776048899805</v>
+        <v>3.995048706728984</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002120997567537045</v>
+        <v>0.002141965083078418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003221241204402439</v>
+        <v>0.003247231283503658</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09956069298327498</v>
+        <v>0.09999661842665281</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07799837289632262</v>
+        <v>0.07818697011840857</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0641544129882595</v>
+        <v>0.06520195168145855</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1005254374549008</v>
+        <v>0.1018484434942298</v>
       </c>
       <c r="C22" t="n">
-        <v>0.139364395635151</v>
+        <v>0.1407583280687289</v>
       </c>
       <c r="D22" t="n">
-        <v>3.73111207327473</v>
+        <v>3.731457903590786</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00225934396302314</v>
+        <v>0.00228246303982285</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003472554798039691</v>
+        <v>0.003501852392239233</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09673599064735385</v>
+        <v>0.09720209336287892</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07878628654948877</v>
+        <v>0.07899999444986586</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05221303211707178</v>
+        <v>0.0532627143313894</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.09840719906263283</v>
+        <v>0.09969703144931846</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1285890604824155</v>
+        <v>0.1299547598655975</v>
       </c>
       <c r="D23" t="n">
-        <v>3.476310736539946</v>
+        <v>3.476748326894362</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002391481871557917</v>
+        <v>0.002416628090334958</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003718572795696273</v>
+        <v>0.003751094970862529</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09413383790476124</v>
+        <v>0.09461971364987967</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0793743514104466</v>
+        <v>0.07961070539531297</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04071633916301959</v>
+        <v>0.04173323393557259</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09622165617601267</v>
+        <v>0.09747872196929469</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1196369940105331</v>
+        <v>0.1209880969193648</v>
       </c>
       <c r="D24" t="n">
-        <v>3.26089858126817</v>
+        <v>3.261385712310397</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002517599663650212</v>
+        <v>0.00254465859546436</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003959126936136305</v>
+        <v>0.003994791775785766</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09196550263154403</v>
+        <v>0.09246662121415899</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07985951945467908</v>
+        <v>0.08011742286125813</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03237058283793956</v>
+        <v>0.0333461523044688</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0942510732888929</v>
+        <v>0.09541875137963121</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1110366167966827</v>
+        <v>0.1123393789195959</v>
       </c>
       <c r="D25" t="n">
-        <v>3.040578163494875</v>
+        <v>3.041138861359852</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002638509540752759</v>
+        <v>0.002667238579167046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004194754619358538</v>
+        <v>0.004233338654234844</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08999225357991006</v>
+        <v>0.09050542748730431</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08020237305559609</v>
+        <v>0.08048020867022546</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02509607374792058</v>
+        <v>0.026013522516669</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09232187145697683</v>
+        <v>0.09343829878579667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1046233458548654</v>
+        <v>0.1058719996003022</v>
       </c>
       <c r="D26" t="n">
-        <v>2.817197859022838</v>
+        <v>2.817828219240877</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002754541650619393</v>
+        <v>0.002784800953086275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00442555929800098</v>
+        <v>0.004466934401199336</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08821946038810065</v>
+        <v>0.08873799644621766</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08044632573927574</v>
+        <v>0.0807419174422022</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0192355136387703</v>
+        <v>0.0200864654633362</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09060026944392639</v>
+        <v>0.09165196274529105</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0991323377165451</v>
+        <v>0.1003321598400721</v>
       </c>
       <c r="D27" t="n">
-        <v>2.612922830342892</v>
+        <v>2.613620152584512</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002866386850220393</v>
+        <v>0.002898010442259138</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004652059971610795</v>
+        <v>0.004696064308062563</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08678184830346558</v>
+        <v>0.08730313790237124</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08062831694165964</v>
+        <v>0.08094032917299955</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01447348568989532</v>
+        <v>0.0152631951699541</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08904441484712534</v>
+        <v>0.09002894144295565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09436372443580777</v>
+        <v>0.09550118376783913</v>
       </c>
       <c r="D28" t="n">
-        <v>2.424662952258017</v>
+        <v>2.425427594896509</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002974590558177532</v>
+        <v>0.003007413062686285</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004874671008728609</v>
+        <v>0.004921136661669952</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08551986864295033</v>
+        <v>0.08604183177962278</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08073680401543951</v>
+        <v>0.08106355994612705</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01032350356943119</v>
+        <v>0.01104455931779336</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08761265181961005</v>
+        <v>0.08854302573238186</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09064462333500671</v>
+        <v>0.09172399083368836</v>
       </c>
       <c r="D29" t="n">
-        <v>2.24201580347433</v>
+        <v>2.242842178755486</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003079564252450609</v>
+        <v>0.003113457390338052</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005093702638277634</v>
+        <v>0.005142494226000906</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08442581530583665</v>
+        <v>0.08494565129782045</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08079735207852898</v>
+        <v>0.08113720045001331</v>
       </c>
       <c r="I29" t="n">
-        <v>0.007198754255646173</v>
+        <v>0.007851906023171151</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0863734389745522</v>
+        <v>0.08724228463213199</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08755978389933917</v>
+        <v>0.08858199423233135</v>
       </c>
       <c r="D30" t="n">
-        <v>2.069812993460516</v>
+        <v>2.070701527499182</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003181859992994335</v>
+        <v>0.003216681615645335</v>
       </c>
       <c r="F30" t="n">
-        <v>0.005309636235714015</v>
+        <v>0.005360599937581236</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08351252663613033</v>
+        <v>0.08402919072709926</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08082291455638782</v>
+        <v>0.08117456177500697</v>
       </c>
       <c r="I30" t="n">
-        <v>0.004705656958574042</v>
+        <v>0.005296835722265053</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08528510676341548</v>
+        <v>0.08610023975356548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0850890314784188</v>
+        <v>0.08605211042810813</v>
       </c>
       <c r="D31" t="n">
-        <v>1.912023594090456</v>
+        <v>1.912970148714941</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00328190366790611</v>
+        <v>0.003317534474528273</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005522849002622553</v>
+        <v>0.00557585053696515</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08274332033868957</v>
+        <v>0.08325544173844789</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08081772772166228</v>
+        <v>0.08117974010939728</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002632442483677527</v>
+        <v>0.003161681913120509</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0843324602656306</v>
+        <v>0.08509979317437154</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08315728053594253</v>
+        <v>0.08406720266267259</v>
       </c>
       <c r="D32" t="n">
-        <v>1.765193530666926</v>
+        <v>1.76619298697717</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00338006595345502</v>
+        <v>0.003416403829804066</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00573368015328663</v>
+        <v>0.005788600019901079</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08210851525635811</v>
+        <v>0.08261520626685348</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08079289619425378</v>
+        <v>0.08116404805705874</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001092811169226479</v>
+        <v>0.001564492759577318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08351899134065532</v>
+        <v>0.08423913153317825</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08163166393645241</v>
+        <v>0.08249015056235842</v>
       </c>
       <c r="D33" t="n">
-        <v>1.6275121215202</v>
+        <v>1.628563263293271</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0034767114495627</v>
+        <v>0.003513657856804605</v>
       </c>
       <c r="F33" t="n">
-        <v>0.005942477631638268</v>
+        <v>0.005999197848734024</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08158387203444295</v>
+        <v>0.08208500062204989</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08075350550355254</v>
+        <v>0.0811327235203935</v>
       </c>
       <c r="I33" t="n">
-        <v>-6.637534329842487e-05</v>
+        <v>0.0003522131735471667</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
